--- a/mape.xlsx
+++ b/mape.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,13 +479,13 @@
         <v>1.5454191152182</v>
       </c>
       <c r="D2" t="n">
-        <v>2.00354252791973</v>
+        <v>1.90362277850401</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9472681169111</v>
+        <v>1.86316471821991</v>
       </c>
       <c r="F2" t="n">
-        <v>1.79611834920422</v>
+        <v>1.75002799016963</v>
       </c>
     </row>
     <row r="3">
@@ -501,13 +501,13 @@
         <v>2.65830300752121</v>
       </c>
       <c r="D3" t="n">
-        <v>2.87802926628543</v>
+        <v>2.27943147165294</v>
       </c>
       <c r="E3" t="n">
-        <v>2.73610584227714</v>
+        <v>2.38277841681249</v>
       </c>
       <c r="F3" t="n">
-        <v>2.72098851123568</v>
+        <v>2.48234612320976</v>
       </c>
     </row>
     <row r="4">
@@ -523,13 +523,13 @@
         <v>5.02894907406369</v>
       </c>
       <c r="D4" t="n">
-        <v>4.17794121748451</v>
+        <v>3.72308847500766</v>
       </c>
       <c r="E4" t="n">
-        <v>4.93863273174904</v>
+        <v>4.54907834751226</v>
       </c>
       <c r="F4" t="n">
-        <v>4.29528639921865</v>
+        <v>4.08380650517374</v>
       </c>
     </row>
     <row r="5">
@@ -545,13 +545,13 @@
         <v>1.85653146986307</v>
       </c>
       <c r="D5" t="n">
-        <v>2.00780148460234</v>
+        <v>1.93831198986972</v>
       </c>
       <c r="E5" t="n">
-        <v>2.00005052051147</v>
+        <v>1.89248542042924</v>
       </c>
       <c r="F5" t="n">
-        <v>1.94112103357571</v>
+        <v>1.89684891969641</v>
       </c>
     </row>
     <row r="6">
@@ -561,19 +561,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.69014588659761</v>
+        <v>1.68583697169122</v>
       </c>
       <c r="C6" t="n">
-        <v>1.64273761535645</v>
+        <v>1.63003563498664</v>
       </c>
       <c r="D6" t="n">
-        <v>1.88151991221784</v>
+        <v>1.83211784770186</v>
       </c>
       <c r="E6" t="n">
-        <v>1.87490943940893</v>
+        <v>1.77835072547725</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7723848269771</v>
+        <v>1.73164509538667</v>
       </c>
     </row>
     <row r="7">
@@ -583,19 +583,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.69074519855967</v>
+        <v>1.68659209485817</v>
       </c>
       <c r="C7" t="n">
-        <v>1.64320256127798</v>
+        <v>1.63074154389817</v>
       </c>
       <c r="D7" t="n">
-        <v>1.88203094361045</v>
+        <v>1.83247531511126</v>
       </c>
       <c r="E7" t="n">
-        <v>1.87467879214388</v>
+        <v>1.77817542928494</v>
       </c>
       <c r="F7" t="n">
-        <v>1.77272145828859</v>
+        <v>1.73205608667158</v>
       </c>
     </row>
     <row r="8">
@@ -605,19 +605,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.6032907603772</v>
+        <v>1.60037788786339</v>
       </c>
       <c r="C8" t="n">
-        <v>1.51868158614873</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>1.61097242248285</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>1.64067924313401</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>1.5932360977659</v>
+        <v>1.50908721558408</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.53544442950787</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.54401427815876</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.5470216402532</v>
       </c>
     </row>
     <row r="9">
@@ -627,19 +627,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.78327211581196</v>
+        <v>2.9641727849579</v>
       </c>
       <c r="C9" t="n">
-        <v>1.76463439791805</v>
+        <v>2.91160280305163</v>
       </c>
       <c r="D9" t="n">
-        <v>2.06381258046026</v>
+        <v>3.56392728246669</v>
       </c>
       <c r="E9" t="n">
-        <v>2.04142875004482</v>
+        <v>3.39870215716373</v>
       </c>
       <c r="F9" t="n">
-        <v>1.91346994458513</v>
+        <v>3.21009111137695</v>
       </c>
     </row>
     <row r="10">
@@ -649,16 +649,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.78327211581196</v>
+        <v>2.9641727849579</v>
       </c>
       <c r="C10" t="n">
-        <v>1.76463439791805</v>
+        <v>2.91160280305163</v>
       </c>
       <c r="D10" t="n">
-        <v>2.06381258046026</v>
+        <v>3.56392728246669</v>
       </c>
       <c r="E10" t="n">
-        <v>2.04142875004482</v>
+        <v>3.39870215716373</v>
       </c>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -669,19 +669,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.60436658873729</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>1.5138316725939</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.61113186520986</v>
+        <v>1.58682330677456</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.51644749546971</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>1.53105280382889</v>
       </c>
       <c r="E11" t="n">
-        <v>1.6495203477304</v>
+        <v>1.56600924919838</v>
       </c>
       <c r="F11" t="n">
-        <v>1.59452304624388</v>
+        <v>1.54988886039842</v>
       </c>
     </row>
     <row r="12">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.59794239360358</v>
+        <v>4.92417787800037</v>
       </c>
       <c r="C12" t="n">
-        <v>4.91245757344281</v>
+        <v>5.45707803495353</v>
       </c>
       <c r="D12" t="n">
-        <v>4.17155308830207</v>
+        <v>7.19205840154032</v>
       </c>
       <c r="E12" t="n">
-        <v>5.36711639148187</v>
+        <v>5.29875511305917</v>
       </c>
       <c r="F12" t="n">
-        <v>4.26607485397128</v>
+        <v>5.72242234036895</v>
       </c>
     </row>
     <row r="13">
@@ -713,19 +713,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.15783381917268</v>
+        <v>5.37648976328945</v>
       </c>
       <c r="C13" t="n">
-        <v>3.93161426162647</v>
+        <v>5.52113108414505</v>
       </c>
       <c r="D13" t="n">
-        <v>2.75684310129313</v>
+        <v>8.87974220640168</v>
       </c>
       <c r="E13" t="n">
-        <v>3.83452389957736</v>
+        <v>7.08851758051864</v>
       </c>
       <c r="F13" t="n">
-        <v>3.1725409381266</v>
+        <v>6.72095148053404</v>
       </c>
     </row>
     <row r="14">
@@ -734,20 +734,20 @@
           <t>arx</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>1.5404858737524</v>
+      <c r="B14" t="n">
+        <v>1.53545441453833</v>
       </c>
       <c r="C14" t="n">
-        <v>1.72544876759496</v>
+        <v>1.67417829942883</v>
       </c>
       <c r="D14" t="n">
-        <v>1.91063930065873</v>
+        <v>1.81883647665146</v>
       </c>
       <c r="E14" t="n">
-        <v>1.98195536724871</v>
+        <v>1.89296311410148</v>
       </c>
       <c r="F14" t="n">
-        <v>1.79012862455148</v>
+        <v>1.73071307058369</v>
       </c>
     </row>
     <row r="15">
@@ -756,20 +756,20 @@
           <t>arima1_1_2</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2.57134534792772</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5.17300356140853</v>
+      <c r="B15" s="2" t="n">
+        <v>1.3904171092013</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1.47777523701746</v>
       </c>
       <c r="D15" t="n">
-        <v>4.33744633737564</v>
+        <v>1.56734222070151</v>
       </c>
       <c r="E15" t="n">
-        <v>5.06713429939053</v>
+        <v>1.51882112882175</v>
       </c>
       <c r="F15" t="n">
-        <v>4.29214053603322</v>
+        <v>1.48890910318917</v>
       </c>
     </row>
     <row r="16">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.37788840790282</v>
+        <v>1.39336301206938</v>
       </c>
       <c r="C16" t="n">
-        <v>5.79825152386956</v>
+        <v>1.4854102504412</v>
       </c>
       <c r="D16" t="n">
-        <v>5.65645092138205</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5.94957380624825</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.95333171613391</v>
+        <v>1.54860620494541</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1.51628653708042</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>1.48621324586092</v>
       </c>
     </row>
     <row r="17">
@@ -801,19 +801,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.5525315450505</v>
+        <v>2.77957147377093</v>
       </c>
       <c r="C17" t="n">
-        <v>5.21888739172762</v>
+        <v>12.4525138471674</v>
       </c>
       <c r="D17" t="n">
-        <v>4.41990036070178</v>
+        <v>15.542948420251</v>
       </c>
       <c r="E17" t="n">
-        <v>5.10549408643058</v>
+        <v>11.8730955924038</v>
       </c>
       <c r="F17" t="n">
-        <v>4.32933663451644</v>
+        <v>10.6910682514022</v>
       </c>
     </row>
     <row r="18">
@@ -823,19 +823,63 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.59794239360358</v>
+        <v>4.97407663646201</v>
       </c>
       <c r="C18" t="n">
-        <v>4.91245757344281</v>
+        <v>5.45597479967069</v>
       </c>
       <c r="D18" t="n">
-        <v>4.17155308830207</v>
+        <v>7.20118431619643</v>
       </c>
       <c r="E18" t="n">
-        <v>5.36711639148187</v>
+        <v>5.28056878297033</v>
       </c>
       <c r="F18" t="n">
-        <v>4.26607485397128</v>
+        <v>5.73226903833074</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>arima1_0_2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4.34502961991106</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.75598926276295</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7.50972418272067</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5.42101109565839</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.76465889819797</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>sarima212_001</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.73284441964206</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12.3331045517984</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15.4148542117711</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.78061540627</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.76465889819797</v>
       </c>
     </row>
   </sheetData>
